--- a/var_info/indv_panel_var_info/HRS_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/HRS_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973D77DC-405F-9845-AC10-F98F914205F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D43BF32-63DC-F04B-8AA1-A0F418229AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51600" windowHeight="20460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Dates!$A$1:$G$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dems!$A$1:$O$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$O$107</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$O$202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dems!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$P$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$202</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2981" uniqueCount="435">
   <si>
     <t>Month of interview</t>
   </si>
@@ -1333,6 +1333,9 @@
   </si>
   <si>
     <t>ALC_4DRINKS_3MO_DIS93A</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -1823,12 +1826,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2187,12 +2187,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O202"/>
+  <dimension ref="A1:P202"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H59" sqref="H59:H97"/>
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F114" sqref="F114:M123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2201,54 +2200,57 @@
     <col min="5" max="5" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>301</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>304</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>308</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>313</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>309</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s">
         <v>310</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" t="s">
         <v>311</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
+        <v>434</v>
+      </c>
+      <c r="P1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2276,7 +2278,7 @@
       <c r="I2" t="s">
         <v>430</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>93</v>
       </c>
       <c r="K2">
@@ -2285,8 +2287,11 @@
       <c r="L2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2314,7 +2319,7 @@
       <c r="I3" t="s">
         <v>430</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>93</v>
       </c>
       <c r="K3">
@@ -2323,8 +2328,11 @@
       <c r="L3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2352,7 +2360,7 @@
       <c r="I4" t="s">
         <v>430</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>93</v>
       </c>
       <c r="K4">
@@ -2361,8 +2369,11 @@
       <c r="L4" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2390,7 +2401,7 @@
       <c r="I5" t="s">
         <v>430</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>93</v>
       </c>
       <c r="K5">
@@ -2399,8 +2410,11 @@
       <c r="L5" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -2428,7 +2442,7 @@
       <c r="I6" t="s">
         <v>430</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>93</v>
       </c>
       <c r="K6">
@@ -2437,8 +2451,11 @@
       <c r="L6" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -2466,7 +2483,7 @@
       <c r="I7" t="s">
         <v>430</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
         <v>93</v>
       </c>
       <c r="K7">
@@ -2475,8 +2492,11 @@
       <c r="L7" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -2504,7 +2524,7 @@
       <c r="I8" t="s">
         <v>430</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>93</v>
       </c>
       <c r="K8">
@@ -2513,8 +2533,11 @@
       <c r="L8" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2542,7 +2565,7 @@
       <c r="I9" t="s">
         <v>430</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
         <v>93</v>
       </c>
       <c r="K9">
@@ -2551,8 +2574,11 @@
       <c r="L9" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -2580,7 +2606,7 @@
       <c r="I10" t="s">
         <v>430</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>93</v>
       </c>
       <c r="K10">
@@ -2589,15 +2615,18 @@
       <c r="L10" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11">
         <v>2014</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>288</v>
       </c>
       <c r="D11" t="s">
@@ -2618,7 +2647,7 @@
       <c r="I11" t="s">
         <v>430</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11">
         <v>93</v>
       </c>
       <c r="K11">
@@ -2627,8 +2656,11 @@
       <c r="L11" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -2656,7 +2688,7 @@
       <c r="I12" t="s">
         <v>430</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12">
         <v>93</v>
       </c>
       <c r="K12">
@@ -2665,8 +2697,11 @@
       <c r="L12" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -2694,7 +2729,7 @@
       <c r="I13" t="s">
         <v>430</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13">
         <v>93</v>
       </c>
       <c r="K13">
@@ -2703,8 +2738,11 @@
       <c r="L13" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2732,14 +2770,17 @@
       <c r="I14" t="s">
         <v>430</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14">
         <v>93</v>
       </c>
       <c r="K14">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -2767,17 +2808,20 @@
       <c r="I15" t="s">
         <v>237</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15">
         <v>2</v>
       </c>
       <c r="K15" t="s">
         <v>238</v>
       </c>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -2805,17 +2849,20 @@
       <c r="I16" t="s">
         <v>237</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16">
         <v>2</v>
       </c>
       <c r="K16" t="s">
         <v>238</v>
       </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -2843,17 +2890,20 @@
       <c r="I17" t="s">
         <v>237</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17">
         <v>2</v>
       </c>
       <c r="K17" t="s">
         <v>238</v>
       </c>
-      <c r="N17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -2881,17 +2931,20 @@
       <c r="I18" t="s">
         <v>237</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18">
         <v>2</v>
       </c>
       <c r="K18" t="s">
         <v>238</v>
       </c>
-      <c r="N18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -2919,17 +2972,20 @@
       <c r="I19" t="s">
         <v>237</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19">
         <v>2</v>
       </c>
       <c r="K19" t="s">
         <v>238</v>
       </c>
-      <c r="N19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -2957,17 +3013,20 @@
       <c r="I20" t="s">
         <v>237</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20">
         <v>2</v>
       </c>
       <c r="K20" t="s">
         <v>238</v>
       </c>
-      <c r="N20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -2995,17 +3054,20 @@
       <c r="I21" t="s">
         <v>237</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21">
         <v>2</v>
       </c>
       <c r="K21" t="s">
         <v>238</v>
       </c>
-      <c r="N21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -3033,17 +3095,20 @@
       <c r="I22" t="s">
         <v>237</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22">
         <v>2</v>
       </c>
       <c r="K22" t="s">
         <v>238</v>
       </c>
-      <c r="N22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -3071,24 +3136,27 @@
       <c r="I23" t="s">
         <v>237</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23">
         <v>2</v>
       </c>
       <c r="K23" t="s">
         <v>238</v>
       </c>
-      <c r="N23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
       <c r="B24">
         <v>2014</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>288</v>
       </c>
       <c r="D24" t="s">
@@ -3109,17 +3177,20 @@
       <c r="I24" t="s">
         <v>237</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24">
         <v>2</v>
       </c>
       <c r="K24" t="s">
         <v>238</v>
       </c>
-      <c r="N24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -3147,17 +3218,20 @@
       <c r="I25" t="s">
         <v>237</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25">
         <v>2</v>
       </c>
       <c r="K25" t="s">
         <v>238</v>
       </c>
-      <c r="N25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -3185,17 +3259,20 @@
       <c r="I26" t="s">
         <v>237</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26">
         <v>2</v>
       </c>
       <c r="K26" t="s">
         <v>238</v>
       </c>
-      <c r="N26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -3223,12 +3300,17 @@
       <c r="I27" t="s">
         <v>237</v>
       </c>
-      <c r="J27" s="2">
-        <v>2</v>
-      </c>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -3256,15 +3338,17 @@
       <c r="I28" t="s">
         <v>243</v>
       </c>
-      <c r="J28" s="2"/>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -3292,15 +3376,17 @@
       <c r="I29" t="s">
         <v>243</v>
       </c>
-      <c r="J29" s="2"/>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -3328,15 +3414,17 @@
       <c r="I30" t="s">
         <v>243</v>
       </c>
-      <c r="J30" s="2"/>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -3364,15 +3452,17 @@
       <c r="I31" t="s">
         <v>243</v>
       </c>
-      <c r="J31" s="2"/>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -3400,15 +3490,17 @@
       <c r="I32" t="s">
         <v>243</v>
       </c>
-      <c r="J32" s="2"/>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -3436,15 +3528,17 @@
       <c r="I33" t="s">
         <v>243</v>
       </c>
-      <c r="J33" s="2"/>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -3472,15 +3566,17 @@
       <c r="I34" t="s">
         <v>243</v>
       </c>
-      <c r="J34" s="2"/>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -3508,15 +3604,17 @@
       <c r="I35" t="s">
         <v>243</v>
       </c>
-      <c r="J35" s="2"/>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -3544,22 +3642,24 @@
       <c r="I36" t="s">
         <v>243</v>
       </c>
-      <c r="J36" s="2"/>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
       <c r="B37">
         <v>2014</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>288</v>
       </c>
       <c r="D37" t="s">
@@ -3580,15 +3680,17 @@
       <c r="I37" t="s">
         <v>243</v>
       </c>
-      <c r="J37" s="2"/>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -3616,15 +3718,17 @@
       <c r="I38" t="s">
         <v>243</v>
       </c>
-      <c r="J38" s="2"/>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="L38" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -3652,15 +3756,17 @@
       <c r="I39" t="s">
         <v>243</v>
       </c>
-      <c r="J39" s="2"/>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="L39" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -3688,12 +3794,14 @@
       <c r="I40" t="s">
         <v>243</v>
       </c>
-      <c r="J40" s="2"/>
       <c r="K40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -3721,7 +3829,7 @@
       <c r="I41" t="s">
         <v>430</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41">
         <v>8</v>
       </c>
       <c r="K41">
@@ -3730,8 +3838,11 @@
       <c r="L41" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -3759,7 +3870,7 @@
       <c r="I42" t="s">
         <v>430</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42">
         <v>8</v>
       </c>
       <c r="K42">
@@ -3768,8 +3879,11 @@
       <c r="L42" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -3797,7 +3911,7 @@
       <c r="I43" t="s">
         <v>430</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43">
         <v>8</v>
       </c>
       <c r="K43">
@@ -3806,8 +3920,11 @@
       <c r="L43" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -3835,7 +3952,7 @@
       <c r="I44" t="s">
         <v>430</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44">
         <v>8</v>
       </c>
       <c r="K44">
@@ -3844,8 +3961,11 @@
       <c r="L44" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -3873,7 +3993,7 @@
       <c r="I45" t="s">
         <v>430</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45">
         <v>8</v>
       </c>
       <c r="K45">
@@ -3882,8 +4002,11 @@
       <c r="L45" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -3911,7 +4034,7 @@
       <c r="I46" t="s">
         <v>430</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46">
         <v>8</v>
       </c>
       <c r="K46">
@@ -3920,8 +4043,11 @@
       <c r="L46" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -3949,7 +4075,7 @@
       <c r="I47" t="s">
         <v>430</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47">
         <v>8</v>
       </c>
       <c r="K47">
@@ -3958,8 +4084,11 @@
       <c r="L47" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -3987,7 +4116,7 @@
       <c r="I48" t="s">
         <v>430</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48">
         <v>8</v>
       </c>
       <c r="K48">
@@ -3996,8 +4125,11 @@
       <c r="L48" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -4025,7 +4157,7 @@
       <c r="I49" t="s">
         <v>430</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49">
         <v>8</v>
       </c>
       <c r="K49">
@@ -4034,15 +4166,18 @@
       <c r="L49" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1</v>
       </c>
       <c r="B50">
         <v>2014</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="1" t="s">
         <v>288</v>
       </c>
       <c r="D50" t="s">
@@ -4063,7 +4198,7 @@
       <c r="I50" t="s">
         <v>430</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50">
         <v>8</v>
       </c>
       <c r="K50">
@@ -4072,8 +4207,11 @@
       <c r="L50" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -4101,7 +4239,7 @@
       <c r="I51" t="s">
         <v>430</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51">
         <v>8</v>
       </c>
       <c r="K51">
@@ -4110,8 +4248,11 @@
       <c r="L51" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -4139,7 +4280,7 @@
       <c r="I52" t="s">
         <v>430</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52">
         <v>8</v>
       </c>
       <c r="K52">
@@ -4148,8 +4289,11 @@
       <c r="L52" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -4177,14 +4321,17 @@
       <c r="I53" t="s">
         <v>430</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53">
         <v>8</v>
       </c>
       <c r="K53">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -4212,14 +4359,17 @@
       <c r="I54" t="s">
         <v>237</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54">
         <v>11</v>
       </c>
       <c r="L54" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -4247,14 +4397,17 @@
       <c r="I55" t="s">
         <v>237</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55">
         <v>11</v>
       </c>
       <c r="L55" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -4282,14 +4435,17 @@
       <c r="I56" t="s">
         <v>237</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56">
         <v>11</v>
       </c>
       <c r="L56" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -4317,11 +4473,14 @@
       <c r="I57" t="s">
         <v>237</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -4346,7 +4505,7 @@
       <c r="H58" t="s">
         <v>240</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" t="s">
         <v>237</v>
       </c>
       <c r="J58">
@@ -4358,8 +4517,11 @@
       <c r="M58" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -4384,7 +4546,7 @@
       <c r="H59" t="s">
         <v>240</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" t="s">
         <v>237</v>
       </c>
       <c r="J59">
@@ -4396,8 +4558,11 @@
       <c r="M59" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -4422,7 +4587,7 @@
       <c r="H60" t="s">
         <v>240</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" t="s">
         <v>237</v>
       </c>
       <c r="J60">
@@ -4434,8 +4599,11 @@
       <c r="M60" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -4460,7 +4628,7 @@
       <c r="H61" t="s">
         <v>240</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" t="s">
         <v>237</v>
       </c>
       <c r="J61">
@@ -4472,8 +4640,11 @@
       <c r="M61" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -4498,7 +4669,7 @@
       <c r="H62" t="s">
         <v>240</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" t="s">
         <v>237</v>
       </c>
       <c r="J62">
@@ -4510,8 +4681,11 @@
       <c r="M62" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -4536,7 +4710,7 @@
       <c r="H63" t="s">
         <v>240</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="I63" t="s">
         <v>237</v>
       </c>
       <c r="J63">
@@ -4548,8 +4722,11 @@
       <c r="M63" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -4574,7 +4751,7 @@
       <c r="H64" t="s">
         <v>240</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I64" t="s">
         <v>237</v>
       </c>
       <c r="J64">
@@ -4586,8 +4763,11 @@
       <c r="M64" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -4612,7 +4792,7 @@
       <c r="H65" t="s">
         <v>240</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I65" t="s">
         <v>237</v>
       </c>
       <c r="J65">
@@ -4624,8 +4804,11 @@
       <c r="M65" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -4650,7 +4833,7 @@
       <c r="H66" t="s">
         <v>240</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I66" t="s">
         <v>237</v>
       </c>
       <c r="J66">
@@ -4662,8 +4845,11 @@
       <c r="M66" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -4688,7 +4874,7 @@
       <c r="H67" t="s">
         <v>240</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I67" t="s">
         <v>237</v>
       </c>
       <c r="J67">
@@ -4700,8 +4886,11 @@
       <c r="M67" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -4726,7 +4915,7 @@
       <c r="H68" t="s">
         <v>240</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I68" t="s">
         <v>237</v>
       </c>
       <c r="J68">
@@ -4738,8 +4927,11 @@
       <c r="M68" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -4764,7 +4956,7 @@
       <c r="H69" t="s">
         <v>240</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I69" t="s">
         <v>237</v>
       </c>
       <c r="J69">
@@ -4776,8 +4968,11 @@
       <c r="M69" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -4802,7 +4997,7 @@
       <c r="H70" t="s">
         <v>240</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="I70" t="s">
         <v>237</v>
       </c>
       <c r="J70">
@@ -4814,11 +5009,14 @@
       <c r="M70" t="s">
         <v>245</v>
       </c>
-      <c r="O70" t="s">
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -4843,7 +5041,7 @@
       <c r="H71" t="s">
         <v>240</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="I71" t="s">
         <v>237</v>
       </c>
       <c r="J71">
@@ -4855,11 +5053,14 @@
       <c r="M71" t="s">
         <v>245</v>
       </c>
-      <c r="O71" t="s">
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -4884,7 +5085,7 @@
       <c r="H72" t="s">
         <v>240</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="I72" t="s">
         <v>237</v>
       </c>
       <c r="J72">
@@ -4896,11 +5097,14 @@
       <c r="M72" t="s">
         <v>245</v>
       </c>
-      <c r="O72" t="s">
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -4925,7 +5129,7 @@
       <c r="H73" t="s">
         <v>240</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I73" t="s">
         <v>237</v>
       </c>
       <c r="J73">
@@ -4937,8 +5141,11 @@
       <c r="M73" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -4963,7 +5170,7 @@
       <c r="H74" t="s">
         <v>240</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="I74" t="s">
         <v>237</v>
       </c>
       <c r="J74">
@@ -4975,8 +5182,11 @@
       <c r="M74" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -5001,7 +5211,7 @@
       <c r="H75" t="s">
         <v>240</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="I75" t="s">
         <v>237</v>
       </c>
       <c r="J75">
@@ -5013,11 +5223,14 @@
       <c r="M75" t="s">
         <v>245</v>
       </c>
-      <c r="O75" t="s">
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -5042,7 +5255,7 @@
       <c r="H76" t="s">
         <v>240</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="I76" t="s">
         <v>237</v>
       </c>
       <c r="J76">
@@ -5054,11 +5267,14 @@
       <c r="M76" t="s">
         <v>245</v>
       </c>
-      <c r="O76" t="s">
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -5083,7 +5299,7 @@
       <c r="H77" t="s">
         <v>240</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="I77" t="s">
         <v>237</v>
       </c>
       <c r="J77">
@@ -5095,11 +5311,14 @@
       <c r="M77" t="s">
         <v>245</v>
       </c>
-      <c r="O77" t="s">
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -5124,7 +5343,7 @@
       <c r="H78" t="s">
         <v>240</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I78" t="s">
         <v>237</v>
       </c>
       <c r="J78">
@@ -5136,8 +5355,11 @@
       <c r="M78" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -5162,7 +5384,7 @@
       <c r="H79" t="s">
         <v>240</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I79" t="s">
         <v>237</v>
       </c>
       <c r="J79">
@@ -5174,8 +5396,11 @@
       <c r="M79" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -5200,7 +5425,7 @@
       <c r="H80" t="s">
         <v>240</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I80" t="s">
         <v>237</v>
       </c>
       <c r="J80">
@@ -5212,11 +5437,14 @@
       <c r="M80" t="s">
         <v>245</v>
       </c>
-      <c r="O80" t="s">
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -5241,7 +5469,7 @@
       <c r="H81" t="s">
         <v>240</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="I81" t="s">
         <v>237</v>
       </c>
       <c r="J81">
@@ -5253,11 +5481,14 @@
       <c r="M81" t="s">
         <v>245</v>
       </c>
-      <c r="O81" t="s">
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -5282,7 +5513,7 @@
       <c r="H82" t="s">
         <v>240</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="I82" t="s">
         <v>237</v>
       </c>
       <c r="J82">
@@ -5294,11 +5525,14 @@
       <c r="M82" t="s">
         <v>245</v>
       </c>
-      <c r="O82" t="s">
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -5323,7 +5557,7 @@
       <c r="H83" t="s">
         <v>240</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="I83" t="s">
         <v>237</v>
       </c>
       <c r="J83">
@@ -5335,8 +5569,11 @@
       <c r="M83" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -5361,7 +5598,7 @@
       <c r="H84" t="s">
         <v>240</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="I84" t="s">
         <v>237</v>
       </c>
       <c r="J84">
@@ -5373,8 +5610,11 @@
       <c r="M84" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -5399,7 +5639,7 @@
       <c r="H85" t="s">
         <v>240</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="I85" t="s">
         <v>237</v>
       </c>
       <c r="J85">
@@ -5411,8 +5651,11 @@
       <c r="M85" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -5437,7 +5680,7 @@
       <c r="H86" t="s">
         <v>240</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="I86" t="s">
         <v>237</v>
       </c>
       <c r="J86">
@@ -5449,8 +5692,11 @@
       <c r="M86" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -5475,7 +5721,7 @@
       <c r="H87" t="s">
         <v>240</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I87" t="s">
         <v>237</v>
       </c>
       <c r="J87">
@@ -5487,8 +5733,11 @@
       <c r="M87" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -5513,7 +5762,7 @@
       <c r="H88" t="s">
         <v>240</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="I88" t="s">
         <v>237</v>
       </c>
       <c r="J88">
@@ -5525,8 +5774,11 @@
       <c r="M88" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -5551,7 +5803,7 @@
       <c r="H89" t="s">
         <v>240</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="I89" t="s">
         <v>237</v>
       </c>
       <c r="J89">
@@ -5563,8 +5815,11 @@
       <c r="M89" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -5589,7 +5844,7 @@
       <c r="H90" t="s">
         <v>240</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="I90" t="s">
         <v>237</v>
       </c>
       <c r="J90">
@@ -5601,8 +5856,11 @@
       <c r="M90" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -5627,7 +5885,7 @@
       <c r="H91" t="s">
         <v>240</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="I91" t="s">
         <v>237</v>
       </c>
       <c r="J91">
@@ -5639,8 +5897,11 @@
       <c r="M91" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1</v>
       </c>
@@ -5665,7 +5926,7 @@
       <c r="H92" t="s">
         <v>240</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="I92" t="s">
         <v>237</v>
       </c>
       <c r="J92">
@@ -5677,8 +5938,11 @@
       <c r="M92" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -5703,7 +5967,7 @@
       <c r="H93" t="s">
         <v>240</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="I93" t="s">
         <v>237</v>
       </c>
       <c r="J93">
@@ -5715,8 +5979,11 @@
       <c r="M93" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -5741,7 +6008,7 @@
       <c r="H94" t="s">
         <v>240</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="I94" t="s">
         <v>237</v>
       </c>
       <c r="J94">
@@ -5753,8 +6020,11 @@
       <c r="M94" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -5779,7 +6049,7 @@
       <c r="H95" t="s">
         <v>240</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="I95" t="s">
         <v>237</v>
       </c>
       <c r="J95">
@@ -5791,8 +6061,11 @@
       <c r="M95" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -5817,7 +6090,7 @@
       <c r="H96" t="s">
         <v>240</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="I96" t="s">
         <v>237</v>
       </c>
       <c r="J96">
@@ -5829,8 +6102,11 @@
       <c r="M96" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1</v>
       </c>
@@ -5855,7 +6131,7 @@
       <c r="H97" t="s">
         <v>240</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="I97" t="s">
         <v>237</v>
       </c>
       <c r="J97">
@@ -5867,8 +6143,11 @@
       <c r="M97" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -5896,11 +6175,14 @@
       <c r="I98" t="s">
         <v>237</v>
       </c>
-      <c r="J98" s="2">
+      <c r="J98">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -5928,11 +6210,14 @@
       <c r="I99" t="s">
         <v>237</v>
       </c>
-      <c r="J99" s="2">
+      <c r="J99">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -5960,11 +6245,14 @@
       <c r="I100" t="s">
         <v>237</v>
       </c>
-      <c r="J100" s="2">
+      <c r="J100">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -5992,11 +6280,14 @@
       <c r="I101" t="s">
         <v>237</v>
       </c>
-      <c r="J101" s="2">
+      <c r="J101">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -6024,11 +6315,14 @@
       <c r="I102" t="s">
         <v>237</v>
       </c>
-      <c r="J102" s="2">
+      <c r="J102">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1</v>
       </c>
@@ -6056,11 +6350,14 @@
       <c r="I103" t="s">
         <v>237</v>
       </c>
-      <c r="J103" s="2">
+      <c r="J103">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -6088,11 +6385,14 @@
       <c r="I104" t="s">
         <v>237</v>
       </c>
-      <c r="J104" s="2">
+      <c r="J104">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -6120,11 +6420,14 @@
       <c r="I105" t="s">
         <v>237</v>
       </c>
-      <c r="J105" s="2">
+      <c r="J105">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1</v>
       </c>
@@ -6152,14 +6455,17 @@
       <c r="I106" t="s">
         <v>237</v>
       </c>
-      <c r="J106" s="2">
+      <c r="J106">
         <v>11</v>
       </c>
       <c r="L106" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -6187,14 +6493,17 @@
       <c r="I107" t="s">
         <v>237</v>
       </c>
-      <c r="J107" s="2">
+      <c r="J107">
         <v>11</v>
       </c>
       <c r="L107" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -6222,14 +6531,17 @@
       <c r="I108" t="s">
         <v>237</v>
       </c>
-      <c r="J108" s="2">
+      <c r="J108">
         <v>11</v>
       </c>
       <c r="L108" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -6257,11 +6569,14 @@
       <c r="I109" t="s">
         <v>237</v>
       </c>
-      <c r="J109" s="2">
+      <c r="J109">
         <v>11</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -6289,14 +6604,17 @@
       <c r="I110" t="s">
         <v>237</v>
       </c>
-      <c r="J110" s="2">
+      <c r="J110">
         <v>11</v>
       </c>
       <c r="L110" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -6324,14 +6642,17 @@
       <c r="I111" t="s">
         <v>237</v>
       </c>
-      <c r="J111" s="2">
+      <c r="J111">
         <v>11</v>
       </c>
       <c r="L111" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -6359,14 +6680,17 @@
       <c r="I112" t="s">
         <v>237</v>
       </c>
-      <c r="J112" s="2">
+      <c r="J112">
         <v>11</v>
       </c>
       <c r="L112" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -6394,11 +6718,14 @@
       <c r="I113" t="s">
         <v>237</v>
       </c>
-      <c r="J113" s="2">
+      <c r="J113">
         <v>11</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -6423,7 +6750,7 @@
       <c r="H114" t="s">
         <v>357</v>
       </c>
-      <c r="I114" s="2" t="s">
+      <c r="I114" t="s">
         <v>237</v>
       </c>
       <c r="J114">
@@ -6435,8 +6762,11 @@
       <c r="M114" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -6461,7 +6791,7 @@
       <c r="H115" t="s">
         <v>357</v>
       </c>
-      <c r="I115" s="2" t="s">
+      <c r="I115" t="s">
         <v>237</v>
       </c>
       <c r="J115">
@@ -6473,8 +6803,11 @@
       <c r="M115" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -6499,7 +6832,7 @@
       <c r="H116" t="s">
         <v>357</v>
       </c>
-      <c r="I116" s="2" t="s">
+      <c r="I116" t="s">
         <v>237</v>
       </c>
       <c r="J116">
@@ -6511,8 +6844,11 @@
       <c r="M116" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -6537,7 +6873,7 @@
       <c r="H117" t="s">
         <v>357</v>
       </c>
-      <c r="I117" s="2" t="s">
+      <c r="I117" t="s">
         <v>237</v>
       </c>
       <c r="J117">
@@ -6549,8 +6885,11 @@
       <c r="M117" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1</v>
       </c>
@@ -6575,7 +6914,7 @@
       <c r="H118" t="s">
         <v>357</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="I118" t="s">
         <v>237</v>
       </c>
       <c r="J118">
@@ -6587,8 +6926,11 @@
       <c r="M118" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -6613,7 +6955,7 @@
       <c r="H119" t="s">
         <v>357</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="I119" t="s">
         <v>237</v>
       </c>
       <c r="J119">
@@ -6625,8 +6967,11 @@
       <c r="M119" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -6651,7 +6996,7 @@
       <c r="H120" t="s">
         <v>357</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="I120" t="s">
         <v>237</v>
       </c>
       <c r="J120">
@@ -6663,8 +7008,11 @@
       <c r="M120" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -6689,7 +7037,7 @@
       <c r="H121" t="s">
         <v>357</v>
       </c>
-      <c r="I121" s="2" t="s">
+      <c r="I121" t="s">
         <v>237</v>
       </c>
       <c r="J121">
@@ -6701,8 +7049,11 @@
       <c r="M121" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1</v>
       </c>
@@ -6727,7 +7078,7 @@
       <c r="H122" t="s">
         <v>357</v>
       </c>
-      <c r="I122" s="2" t="s">
+      <c r="I122" t="s">
         <v>237</v>
       </c>
       <c r="J122">
@@ -6739,8 +7090,11 @@
       <c r="M122" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -6765,7 +7119,7 @@
       <c r="H123" t="s">
         <v>357</v>
       </c>
-      <c r="I123" s="2" t="s">
+      <c r="I123" t="s">
         <v>237</v>
       </c>
       <c r="J123">
@@ -6777,8 +7131,11 @@
       <c r="M123" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1</v>
       </c>
@@ -6806,14 +7163,17 @@
       <c r="I124" t="s">
         <v>237</v>
       </c>
-      <c r="J124" s="2">
+      <c r="J124">
         <v>11</v>
       </c>
       <c r="L124" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1</v>
       </c>
@@ -6841,14 +7201,17 @@
       <c r="I125" t="s">
         <v>237</v>
       </c>
-      <c r="J125" s="2">
+      <c r="J125">
         <v>11</v>
       </c>
       <c r="L125" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1</v>
       </c>
@@ -6876,14 +7239,17 @@
       <c r="I126" t="s">
         <v>237</v>
       </c>
-      <c r="J126" s="2">
+      <c r="J126">
         <v>11</v>
       </c>
       <c r="L126" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1</v>
       </c>
@@ -6911,11 +7277,14 @@
       <c r="I127" t="s">
         <v>237</v>
       </c>
-      <c r="J127" s="2">
+      <c r="J127">
         <v>11</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1</v>
       </c>
@@ -6940,7 +7309,7 @@
       <c r="H128" t="s">
         <v>357</v>
       </c>
-      <c r="I128" s="2" t="s">
+      <c r="I128" t="s">
         <v>237</v>
       </c>
       <c r="J128">
@@ -6952,8 +7321,11 @@
       <c r="M128" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1</v>
       </c>
@@ -6978,7 +7350,7 @@
       <c r="H129" t="s">
         <v>357</v>
       </c>
-      <c r="I129" s="2" t="s">
+      <c r="I129" t="s">
         <v>237</v>
       </c>
       <c r="J129">
@@ -6990,8 +7362,11 @@
       <c r="M129" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1</v>
       </c>
@@ -7016,7 +7391,7 @@
       <c r="H130" t="s">
         <v>357</v>
       </c>
-      <c r="I130" s="2" t="s">
+      <c r="I130" t="s">
         <v>237</v>
       </c>
       <c r="J130">
@@ -7028,8 +7403,11 @@
       <c r="M130" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1</v>
       </c>
@@ -7054,7 +7432,7 @@
       <c r="H131" t="s">
         <v>357</v>
       </c>
-      <c r="I131" s="2" t="s">
+      <c r="I131" t="s">
         <v>237</v>
       </c>
       <c r="J131">
@@ -7066,8 +7444,11 @@
       <c r="M131" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -7092,7 +7473,7 @@
       <c r="H132" t="s">
         <v>357</v>
       </c>
-      <c r="I132" s="2" t="s">
+      <c r="I132" t="s">
         <v>237</v>
       </c>
       <c r="J132">
@@ -7104,8 +7485,11 @@
       <c r="M132" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -7130,7 +7514,7 @@
       <c r="H133" t="s">
         <v>357</v>
       </c>
-      <c r="I133" s="2" t="s">
+      <c r="I133" t="s">
         <v>237</v>
       </c>
       <c r="J133">
@@ -7142,8 +7526,11 @@
       <c r="M133" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1</v>
       </c>
@@ -7168,7 +7555,7 @@
       <c r="H134" t="s">
         <v>357</v>
       </c>
-      <c r="I134" s="2" t="s">
+      <c r="I134" t="s">
         <v>237</v>
       </c>
       <c r="J134">
@@ -7180,8 +7567,11 @@
       <c r="M134" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1</v>
       </c>
@@ -7206,7 +7596,7 @@
       <c r="H135" t="s">
         <v>357</v>
       </c>
-      <c r="I135" s="2" t="s">
+      <c r="I135" t="s">
         <v>237</v>
       </c>
       <c r="J135">
@@ -7218,8 +7608,11 @@
       <c r="M135" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1</v>
       </c>
@@ -7244,7 +7637,7 @@
       <c r="H136" t="s">
         <v>357</v>
       </c>
-      <c r="I136" s="2" t="s">
+      <c r="I136" t="s">
         <v>237</v>
       </c>
       <c r="J136">
@@ -7256,8 +7649,11 @@
       <c r="M136" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1</v>
       </c>
@@ -7282,7 +7678,7 @@
       <c r="H137" t="s">
         <v>357</v>
       </c>
-      <c r="I137" s="2" t="s">
+      <c r="I137" t="s">
         <v>237</v>
       </c>
       <c r="J137">
@@ -7294,8 +7690,11 @@
       <c r="M137" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -7323,14 +7722,17 @@
       <c r="I138" t="s">
         <v>237</v>
       </c>
-      <c r="J138" s="2">
+      <c r="J138">
         <v>11</v>
       </c>
       <c r="L138" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -7358,14 +7760,17 @@
       <c r="I139" t="s">
         <v>237</v>
       </c>
-      <c r="J139" s="2">
+      <c r="J139">
         <v>11</v>
       </c>
       <c r="L139" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1</v>
       </c>
@@ -7393,14 +7798,17 @@
       <c r="I140" t="s">
         <v>237</v>
       </c>
-      <c r="J140" s="2">
+      <c r="J140">
         <v>11</v>
       </c>
       <c r="L140" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1</v>
       </c>
@@ -7428,11 +7836,14 @@
       <c r="I141" t="s">
         <v>237</v>
       </c>
-      <c r="J141" s="2">
+      <c r="J141">
         <v>11</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1</v>
       </c>
@@ -7460,14 +7871,17 @@
       <c r="I142" t="s">
         <v>237</v>
       </c>
-      <c r="J142" s="2">
+      <c r="J142">
         <v>11</v>
       </c>
       <c r="L142" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1</v>
       </c>
@@ -7495,14 +7909,17 @@
       <c r="I143" t="s">
         <v>237</v>
       </c>
-      <c r="J143" s="2">
+      <c r="J143">
         <v>11</v>
       </c>
       <c r="L143" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1</v>
       </c>
@@ -7530,14 +7947,17 @@
       <c r="I144" t="s">
         <v>237</v>
       </c>
-      <c r="J144" s="2">
+      <c r="J144">
         <v>11</v>
       </c>
       <c r="L144" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1</v>
       </c>
@@ -7565,11 +7985,14 @@
       <c r="I145" t="s">
         <v>237</v>
       </c>
-      <c r="J145" s="2">
+      <c r="J145">
         <v>11</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1</v>
       </c>
@@ -7582,7 +8005,7 @@
       <c r="D146" t="s">
         <v>224</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E146" t="s">
         <v>319</v>
       </c>
       <c r="F146" t="s">
@@ -7597,15 +8020,17 @@
       <c r="I146" t="s">
         <v>243</v>
       </c>
-      <c r="J146" s="2"/>
       <c r="K146">
         <v>1</v>
       </c>
       <c r="L146" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1</v>
       </c>
@@ -7618,7 +8043,7 @@
       <c r="D147" t="s">
         <v>220</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E147" t="s">
         <v>319</v>
       </c>
       <c r="F147" t="s">
@@ -7633,15 +8058,17 @@
       <c r="I147" t="s">
         <v>243</v>
       </c>
-      <c r="J147" s="2"/>
       <c r="K147">
         <v>1</v>
       </c>
       <c r="L147" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1</v>
       </c>
@@ -7654,7 +8081,7 @@
       <c r="D148" t="s">
         <v>214</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="E148" t="s">
         <v>319</v>
       </c>
       <c r="F148" t="s">
@@ -7669,15 +8096,17 @@
       <c r="I148" t="s">
         <v>243</v>
       </c>
-      <c r="J148" s="2"/>
       <c r="K148">
         <v>1</v>
       </c>
       <c r="L148" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1</v>
       </c>
@@ -7690,7 +8119,7 @@
       <c r="D149" t="s">
         <v>190</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E149" t="s">
         <v>319</v>
       </c>
       <c r="F149" t="s">
@@ -7705,15 +8134,17 @@
       <c r="I149" t="s">
         <v>243</v>
       </c>
-      <c r="J149" s="2"/>
       <c r="K149">
         <v>1</v>
       </c>
       <c r="L149" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -7726,7 +8157,7 @@
       <c r="D150" t="s">
         <v>171</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E150" t="s">
         <v>319</v>
       </c>
       <c r="F150" t="s">
@@ -7741,15 +8172,17 @@
       <c r="I150" t="s">
         <v>243</v>
       </c>
-      <c r="J150" s="2"/>
       <c r="K150">
         <v>1</v>
       </c>
       <c r="L150" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1</v>
       </c>
@@ -7762,7 +8195,7 @@
       <c r="D151" t="s">
         <v>147</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E151" t="s">
         <v>319</v>
       </c>
       <c r="F151" t="s">
@@ -7777,15 +8210,17 @@
       <c r="I151" t="s">
         <v>243</v>
       </c>
-      <c r="J151" s="2"/>
       <c r="K151">
         <v>1</v>
       </c>
       <c r="L151" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -7798,7 +8233,7 @@
       <c r="D152" t="s">
         <v>130</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E152" t="s">
         <v>319</v>
       </c>
       <c r="F152" t="s">
@@ -7813,15 +8248,17 @@
       <c r="I152" t="s">
         <v>243</v>
       </c>
-      <c r="J152" s="2"/>
       <c r="K152">
         <v>1</v>
       </c>
       <c r="L152" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -7834,7 +8271,7 @@
       <c r="D153" t="s">
         <v>99</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E153" t="s">
         <v>319</v>
       </c>
       <c r="F153" t="s">
@@ -7849,15 +8286,17 @@
       <c r="I153" t="s">
         <v>243</v>
       </c>
-      <c r="J153" s="2"/>
       <c r="K153">
         <v>1</v>
       </c>
       <c r="L153" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1</v>
       </c>
@@ -7870,7 +8309,7 @@
       <c r="D154" t="s">
         <v>91</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E154" t="s">
         <v>319</v>
       </c>
       <c r="F154" t="s">
@@ -7885,15 +8324,17 @@
       <c r="I154" t="s">
         <v>243</v>
       </c>
-      <c r="J154" s="2"/>
       <c r="K154">
         <v>1</v>
       </c>
       <c r="L154" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1</v>
       </c>
@@ -7906,7 +8347,7 @@
       <c r="D155" t="s">
         <v>75</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E155" t="s">
         <v>319</v>
       </c>
       <c r="F155" t="s">
@@ -7921,15 +8362,17 @@
       <c r="I155" t="s">
         <v>243</v>
       </c>
-      <c r="J155" s="2"/>
       <c r="K155">
         <v>1</v>
       </c>
       <c r="L155" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -7942,7 +8385,7 @@
       <c r="D156" t="s">
         <v>63</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E156" t="s">
         <v>319</v>
       </c>
       <c r="F156" t="s">
@@ -7957,28 +8400,30 @@
       <c r="I156" t="s">
         <v>243</v>
       </c>
-      <c r="J156" s="2"/>
       <c r="K156">
         <v>1</v>
       </c>
       <c r="L156" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1</v>
       </c>
       <c r="B157">
         <v>2014</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="1" t="s">
         <v>288</v>
       </c>
       <c r="D157" t="s">
         <v>51</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E157" t="s">
         <v>319</v>
       </c>
       <c r="F157" t="s">
@@ -7993,15 +8438,17 @@
       <c r="I157" t="s">
         <v>243</v>
       </c>
-      <c r="J157" s="2"/>
       <c r="K157">
         <v>1</v>
       </c>
       <c r="L157" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1</v>
       </c>
@@ -8014,7 +8461,7 @@
       <c r="D158" t="s">
         <v>18</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E158" t="s">
         <v>319</v>
       </c>
       <c r="F158" t="s">
@@ -8029,15 +8476,17 @@
       <c r="I158" t="s">
         <v>243</v>
       </c>
-      <c r="J158" s="2"/>
       <c r="K158">
         <v>1</v>
       </c>
       <c r="L158" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1</v>
       </c>
@@ -8050,7 +8499,7 @@
       <c r="D159" t="s">
         <v>30</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E159" t="s">
         <v>319</v>
       </c>
       <c r="F159" t="s">
@@ -8065,15 +8514,17 @@
       <c r="I159" t="s">
         <v>243</v>
       </c>
-      <c r="J159" s="2"/>
       <c r="K159">
         <v>1</v>
       </c>
       <c r="L159" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -8086,7 +8537,7 @@
       <c r="D160" t="s">
         <v>394</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E160" t="s">
         <v>319</v>
       </c>
       <c r="F160" t="s">
@@ -8101,12 +8552,14 @@
       <c r="I160" t="s">
         <v>243</v>
       </c>
-      <c r="J160" s="2"/>
       <c r="K160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1</v>
       </c>
@@ -8119,7 +8572,7 @@
       <c r="D161" t="s">
         <v>215</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E161" t="s">
         <v>324</v>
       </c>
       <c r="F161" t="s">
@@ -8134,18 +8587,20 @@
       <c r="I161" t="s">
         <v>243</v>
       </c>
-      <c r="J161" s="2"/>
       <c r="K161">
         <v>1</v>
       </c>
       <c r="L161" t="s">
         <v>238</v>
       </c>
-      <c r="O161" t="s">
+      <c r="O161">
+        <v>1</v>
+      </c>
+      <c r="P161" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1</v>
       </c>
@@ -8158,7 +8613,7 @@
       <c r="D162" t="s">
         <v>191</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E162" t="s">
         <v>324</v>
       </c>
       <c r="F162" t="s">
@@ -8173,18 +8628,20 @@
       <c r="I162" t="s">
         <v>243</v>
       </c>
-      <c r="J162" s="2"/>
       <c r="K162">
         <v>1</v>
       </c>
       <c r="L162" t="s">
         <v>238</v>
       </c>
-      <c r="O162" t="s">
+      <c r="O162">
+        <v>1</v>
+      </c>
+      <c r="P162" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1</v>
       </c>
@@ -8197,7 +8654,7 @@
       <c r="D163" t="s">
         <v>172</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E163" t="s">
         <v>324</v>
       </c>
       <c r="F163" t="s">
@@ -8212,18 +8669,20 @@
       <c r="I163" t="s">
         <v>243</v>
       </c>
-      <c r="J163" s="2"/>
       <c r="K163">
         <v>1</v>
       </c>
       <c r="L163" t="s">
         <v>238</v>
       </c>
-      <c r="O163" t="s">
+      <c r="O163">
+        <v>1</v>
+      </c>
+      <c r="P163" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1</v>
       </c>
@@ -8233,10 +8692,10 @@
       <c r="C164" t="s">
         <v>299</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" t="s">
         <v>146</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E164" t="s">
         <v>324</v>
       </c>
       <c r="F164" t="s">
@@ -8251,18 +8710,20 @@
       <c r="I164" t="s">
         <v>243</v>
       </c>
-      <c r="J164" s="2"/>
       <c r="K164">
         <v>1</v>
       </c>
       <c r="L164" t="s">
         <v>238</v>
       </c>
-      <c r="O164" t="s">
+      <c r="O164">
+        <v>1</v>
+      </c>
+      <c r="P164" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -8272,10 +8733,10 @@
       <c r="C165" t="s">
         <v>268</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" t="s">
         <v>129</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E165" t="s">
         <v>324</v>
       </c>
       <c r="F165" t="s">
@@ -8290,18 +8751,20 @@
       <c r="I165" t="s">
         <v>243</v>
       </c>
-      <c r="J165" s="2"/>
       <c r="K165">
         <v>1</v>
       </c>
       <c r="L165" t="s">
         <v>238</v>
       </c>
-      <c r="O165" t="s">
+      <c r="O165">
+        <v>1</v>
+      </c>
+      <c r="P165" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1</v>
       </c>
@@ -8311,10 +8774,10 @@
       <c r="C166" t="s">
         <v>272</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" t="s">
         <v>98</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E166" t="s">
         <v>324</v>
       </c>
       <c r="F166" t="s">
@@ -8329,18 +8792,20 @@
       <c r="I166" t="s">
         <v>243</v>
       </c>
-      <c r="J166" s="2"/>
       <c r="K166">
         <v>1</v>
       </c>
       <c r="L166" t="s">
         <v>238</v>
       </c>
-      <c r="O166" t="s">
+      <c r="O166">
+        <v>1</v>
+      </c>
+      <c r="P166" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1</v>
       </c>
@@ -8350,10 +8815,10 @@
       <c r="C167" t="s">
         <v>277</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" t="s">
         <v>90</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E167" t="s">
         <v>324</v>
       </c>
       <c r="F167" t="s">
@@ -8368,18 +8833,20 @@
       <c r="I167" t="s">
         <v>243</v>
       </c>
-      <c r="J167" s="2"/>
       <c r="K167">
         <v>1</v>
       </c>
       <c r="L167" t="s">
         <v>238</v>
       </c>
-      <c r="O167" t="s">
+      <c r="O167">
+        <v>1</v>
+      </c>
+      <c r="P167" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -8389,10 +8856,10 @@
       <c r="C168" t="s">
         <v>280</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" t="s">
         <v>74</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E168" t="s">
         <v>324</v>
       </c>
       <c r="F168" t="s">
@@ -8407,18 +8874,20 @@
       <c r="I168" t="s">
         <v>243</v>
       </c>
-      <c r="J168" s="2"/>
       <c r="K168">
         <v>1</v>
       </c>
       <c r="L168" t="s">
         <v>238</v>
       </c>
-      <c r="O168" t="s">
+      <c r="O168">
+        <v>1</v>
+      </c>
+      <c r="P168" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -8428,10 +8897,10 @@
       <c r="C169" t="s">
         <v>281</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" t="s">
         <v>62</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E169" t="s">
         <v>324</v>
       </c>
       <c r="F169" t="s">
@@ -8446,31 +8915,33 @@
       <c r="I169" t="s">
         <v>243</v>
       </c>
-      <c r="J169" s="2"/>
       <c r="K169">
         <v>1</v>
       </c>
       <c r="L169" t="s">
         <v>238</v>
       </c>
-      <c r="O169" t="s">
+      <c r="O169">
+        <v>1</v>
+      </c>
+      <c r="P169" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1</v>
       </c>
       <c r="B170">
         <v>2014</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" t="s">
         <v>50</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E170" t="s">
         <v>324</v>
       </c>
       <c r="F170" t="s">
@@ -8485,18 +8956,20 @@
       <c r="I170" t="s">
         <v>243</v>
       </c>
-      <c r="J170" s="2"/>
       <c r="K170">
         <v>1</v>
       </c>
       <c r="L170" t="s">
         <v>238</v>
       </c>
-      <c r="O170" t="s">
+      <c r="O170">
+        <v>1</v>
+      </c>
+      <c r="P170" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1</v>
       </c>
@@ -8506,10 +8979,10 @@
       <c r="C171" t="s">
         <v>291</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" t="s">
         <v>17</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E171" t="s">
         <v>324</v>
       </c>
       <c r="F171" t="s">
@@ -8524,18 +8997,20 @@
       <c r="I171" t="s">
         <v>243</v>
       </c>
-      <c r="J171" s="2"/>
       <c r="K171">
         <v>1</v>
       </c>
       <c r="L171" t="s">
         <v>238</v>
       </c>
-      <c r="O171" t="s">
+      <c r="O171">
+        <v>1</v>
+      </c>
+      <c r="P171" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1</v>
       </c>
@@ -8563,7 +9038,7 @@
       <c r="I172" t="s">
         <v>237</v>
       </c>
-      <c r="J172" s="2">
+      <c r="J172">
         <v>4</v>
       </c>
       <c r="K172" t="s">
@@ -8575,11 +9050,14 @@
       <c r="N172">
         <v>1</v>
       </c>
-      <c r="O172" t="s">
+      <c r="O172">
+        <v>1</v>
+      </c>
+      <c r="P172" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -8607,7 +9085,7 @@
       <c r="I173" t="s">
         <v>237</v>
       </c>
-      <c r="J173" s="2">
+      <c r="J173">
         <v>3</v>
       </c>
       <c r="K173" t="s">
@@ -8619,11 +9097,14 @@
       <c r="N173">
         <v>1</v>
       </c>
-      <c r="O173" s="4" t="s">
+      <c r="O173">
+        <v>1</v>
+      </c>
+      <c r="P173" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -8657,11 +9138,14 @@
       <c r="K174" t="s">
         <v>238</v>
       </c>
-      <c r="N174" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -8695,11 +9179,14 @@
       <c r="K175" t="s">
         <v>238</v>
       </c>
-      <c r="N175" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1</v>
       </c>
@@ -8733,11 +9220,14 @@
       <c r="K176" t="s">
         <v>238</v>
       </c>
-      <c r="N176" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1</v>
       </c>
@@ -8771,11 +9261,14 @@
       <c r="K177" t="s">
         <v>238</v>
       </c>
-      <c r="N177" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1</v>
       </c>
@@ -8809,11 +9302,14 @@
       <c r="K178" t="s">
         <v>238</v>
       </c>
-      <c r="N178" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1</v>
       </c>
@@ -8847,11 +9343,14 @@
       <c r="K179" t="s">
         <v>238</v>
       </c>
-      <c r="N179" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N179">
+        <v>1</v>
+      </c>
+      <c r="O179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1</v>
       </c>
@@ -8885,11 +9384,14 @@
       <c r="K180" t="s">
         <v>238</v>
       </c>
-      <c r="N180" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1</v>
       </c>
@@ -8923,11 +9425,14 @@
       <c r="K181" t="s">
         <v>238</v>
       </c>
-      <c r="N181" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1</v>
       </c>
@@ -8961,18 +9466,21 @@
       <c r="K182" t="s">
         <v>238</v>
       </c>
-      <c r="N182" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1</v>
       </c>
       <c r="B183">
         <v>2014</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="1" t="s">
         <v>288</v>
       </c>
       <c r="D183" t="s">
@@ -8999,11 +9507,14 @@
       <c r="K183" t="s">
         <v>238</v>
       </c>
-      <c r="N183" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1</v>
       </c>
@@ -9037,11 +9548,14 @@
       <c r="K184" t="s">
         <v>238</v>
       </c>
-      <c r="N184" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1</v>
       </c>
@@ -9075,11 +9589,14 @@
       <c r="K185" t="s">
         <v>238</v>
       </c>
-      <c r="N185" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1</v>
       </c>
@@ -9110,9 +9627,14 @@
       <c r="J186">
         <v>2</v>
       </c>
-      <c r="N186" s="2"/>
-    </row>
-    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1</v>
       </c>
@@ -9146,11 +9668,14 @@
       <c r="K187" t="s">
         <v>238</v>
       </c>
-      <c r="N187" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1</v>
       </c>
@@ -9184,11 +9709,14 @@
       <c r="K188" t="s">
         <v>238</v>
       </c>
-      <c r="N188" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1</v>
       </c>
@@ -9219,11 +9747,14 @@
       <c r="J189">
         <v>2</v>
       </c>
-      <c r="N189" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1</v>
       </c>
@@ -9254,11 +9785,14 @@
       <c r="J190">
         <v>2</v>
       </c>
-      <c r="N190" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1</v>
       </c>
@@ -9292,11 +9826,14 @@
       <c r="K191" t="s">
         <v>238</v>
       </c>
-      <c r="N191" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1</v>
       </c>
@@ -9330,11 +9867,14 @@
       <c r="K192" t="s">
         <v>238</v>
       </c>
-      <c r="N192" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N192">
+        <v>1</v>
+      </c>
+      <c r="O192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1</v>
       </c>
@@ -9368,11 +9908,14 @@
       <c r="K193" t="s">
         <v>238</v>
       </c>
-      <c r="N193" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="O193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1</v>
       </c>
@@ -9406,11 +9949,14 @@
       <c r="K194" t="s">
         <v>238</v>
       </c>
-      <c r="N194" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1</v>
       </c>
@@ -9444,11 +9990,14 @@
       <c r="K195" t="s">
         <v>238</v>
       </c>
-      <c r="N195" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N195">
+        <v>1</v>
+      </c>
+      <c r="O195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1</v>
       </c>
@@ -9482,11 +10031,14 @@
       <c r="K196" t="s">
         <v>238</v>
       </c>
-      <c r="N196" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="O196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1</v>
       </c>
@@ -9520,18 +10072,21 @@
       <c r="K197" t="s">
         <v>238</v>
       </c>
-      <c r="N197" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1</v>
       </c>
       <c r="B198">
         <v>2014</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="1" t="s">
         <v>288</v>
       </c>
       <c r="D198" t="s">
@@ -9558,11 +10113,14 @@
       <c r="K198" t="s">
         <v>238</v>
       </c>
-      <c r="N198" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N198">
+        <v>1</v>
+      </c>
+      <c r="O198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1</v>
       </c>
@@ -9596,11 +10154,14 @@
       <c r="K199" t="s">
         <v>238</v>
       </c>
-      <c r="N199" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N199">
+        <v>1</v>
+      </c>
+      <c r="O199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1</v>
       </c>
@@ -9634,11 +10195,14 @@
       <c r="K200" t="s">
         <v>238</v>
       </c>
-      <c r="N200" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N200">
+        <v>1</v>
+      </c>
+      <c r="O200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1</v>
       </c>
@@ -9669,81 +10233,82 @@
       <c r="J201">
         <v>2</v>
       </c>
-      <c r="N201" s="2"/>
-    </row>
-    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D202" s="5"/>
+      <c r="N201">
+        <v>1</v>
+      </c>
+      <c r="O201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D202" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O202" xr:uid="{EBD468ED-6B4A-934B-914E-5D06F4410B8E}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="fin_oth"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O125"/>
+  <dimension ref="A1:P125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>301</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>304</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>308</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>313</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>309</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s">
         <v>310</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" t="s">
         <v>311</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
+        <v>434</v>
+      </c>
+      <c r="P1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9759,11 +10324,11 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9779,11 +10344,11 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -9799,11 +10364,11 @@
       <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -9819,11 +10384,11 @@
       <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -9839,11 +10404,11 @@
       <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -9859,11 +10424,11 @@
       <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -9879,11 +10444,11 @@
       <c r="E8" t="s">
         <v>2</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -9899,11 +10464,11 @@
       <c r="E9" t="s">
         <v>2</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -9919,11 +10484,11 @@
       <c r="E10" t="s">
         <v>2</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -9939,11 +10504,11 @@
       <c r="E11" t="s">
         <v>4</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -9959,11 +10524,11 @@
       <c r="E12" t="s">
         <v>4</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -9979,11 +10544,11 @@
       <c r="E13" t="s">
         <v>4</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -9999,11 +10564,11 @@
       <c r="E14" t="s">
         <v>2</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -10019,11 +10584,11 @@
       <c r="E15" t="s">
         <v>2</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -10039,11 +10604,11 @@
       <c r="E16" t="s">
         <v>2</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -10059,11 +10624,11 @@
       <c r="E17" t="s">
         <v>2</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -10079,11 +10644,11 @@
       <c r="E18" t="s">
         <v>4</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -10099,11 +10664,11 @@
       <c r="E19" t="s">
         <v>4</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -10119,11 +10684,11 @@
       <c r="E20" t="s">
         <v>4</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -10139,11 +10704,11 @@
       <c r="E21" t="s">
         <v>4</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -10159,11 +10724,11 @@
       <c r="E22" t="s">
         <v>2</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -10179,11 +10744,11 @@
       <c r="E23" t="s">
         <v>2</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -10199,11 +10764,11 @@
       <c r="E24" t="s">
         <v>2</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -10219,11 +10784,11 @@
       <c r="E25" t="s">
         <v>2</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -10239,11 +10804,11 @@
       <c r="E26" t="s">
         <v>2</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -10259,11 +10824,11 @@
       <c r="E27" t="s">
         <v>4</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -10279,11 +10844,11 @@
       <c r="E28" t="s">
         <v>4</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -10299,11 +10864,11 @@
       <c r="E29" t="s">
         <v>4</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -10319,11 +10884,11 @@
       <c r="E30" t="s">
         <v>4</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -10339,11 +10904,11 @@
       <c r="E31" t="s">
         <v>4</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -10359,11 +10924,11 @@
       <c r="E32" t="s">
         <v>2</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -10379,11 +10944,11 @@
       <c r="E33" t="s">
         <v>2</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -10399,11 +10964,11 @@
       <c r="E34" t="s">
         <v>2</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -10419,11 +10984,11 @@
       <c r="E35" t="s">
         <v>2</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -10439,11 +11004,11 @@
       <c r="E36" t="s">
         <v>2</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -10459,11 +11024,11 @@
       <c r="E37" t="s">
         <v>4</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -10479,11 +11044,11 @@
       <c r="E38" t="s">
         <v>4</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -10499,11 +11064,11 @@
       <c r="E39" t="s">
         <v>4</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -10519,11 +11084,11 @@
       <c r="E40" t="s">
         <v>4</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -10539,11 +11104,11 @@
       <c r="E41" t="s">
         <v>4</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -10559,11 +11124,11 @@
       <c r="E42" t="s">
         <v>2</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -10579,11 +11144,11 @@
       <c r="E43" t="s">
         <v>2</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -10599,11 +11164,11 @@
       <c r="E44" t="s">
         <v>2</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -10619,11 +11184,11 @@
       <c r="E45" t="s">
         <v>2</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -10639,11 +11204,11 @@
       <c r="E46" t="s">
         <v>4</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -10659,11 +11224,11 @@
       <c r="E47" t="s">
         <v>4</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -10679,11 +11244,11 @@
       <c r="E48" t="s">
         <v>4</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -10699,11 +11264,11 @@
       <c r="E49" t="s">
         <v>4</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -10719,11 +11284,11 @@
       <c r="E50" t="s">
         <v>2</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -10739,11 +11304,11 @@
       <c r="E51" t="s">
         <v>2</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -10759,11 +11324,11 @@
       <c r="E52" t="s">
         <v>2</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -10779,11 +11344,11 @@
       <c r="E53" t="s">
         <v>2</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -10799,11 +11364,11 @@
       <c r="E54" t="s">
         <v>2</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -10819,11 +11384,11 @@
       <c r="E55" t="s">
         <v>4</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -10839,11 +11404,11 @@
       <c r="E56" t="s">
         <v>4</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -10859,11 +11424,11 @@
       <c r="E57" t="s">
         <v>4</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -10879,11 +11444,11 @@
       <c r="E58" t="s">
         <v>4</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -10899,11 +11464,11 @@
       <c r="E59" t="s">
         <v>4</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -10919,11 +11484,11 @@
       <c r="E60" t="s">
         <v>2</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -10939,11 +11504,11 @@
       <c r="E61" t="s">
         <v>2</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -10959,11 +11524,11 @@
       <c r="E62" t="s">
         <v>2</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -10979,11 +11544,11 @@
       <c r="E63" t="s">
         <v>4</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -10999,11 +11564,11 @@
       <c r="E64" t="s">
         <v>4</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -11019,11 +11584,11 @@
       <c r="E65" t="s">
         <v>4</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -11039,11 +11604,11 @@
       <c r="E66" t="s">
         <v>2</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -11059,11 +11624,11 @@
       <c r="E67" t="s">
         <v>2</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -11079,11 +11644,11 @@
       <c r="E68" t="s">
         <v>2</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -11099,11 +11664,11 @@
       <c r="E69" t="s">
         <v>4</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -11119,11 +11684,11 @@
       <c r="E70" t="s">
         <v>4</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -11139,11 +11704,11 @@
       <c r="E71" t="s">
         <v>4</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -11159,11 +11724,11 @@
       <c r="E72" t="s">
         <v>2</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -11179,11 +11744,11 @@
       <c r="E73" t="s">
         <v>2</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -11199,11 +11764,11 @@
       <c r="E74" t="s">
         <v>2</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -11219,11 +11784,11 @@
       <c r="E75" t="s">
         <v>4</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -11239,11 +11804,11 @@
       <c r="E76" t="s">
         <v>4</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -11259,11 +11824,11 @@
       <c r="E77" t="s">
         <v>4</v>
       </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -11279,11 +11844,11 @@
       <c r="E78" t="s">
         <v>2</v>
       </c>
-      <c r="O78" t="s">
+      <c r="P78" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -11299,11 +11864,11 @@
       <c r="E79" t="s">
         <v>2</v>
       </c>
-      <c r="O79" t="s">
+      <c r="P79" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -11319,11 +11884,11 @@
       <c r="E80" t="s">
         <v>2</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -11339,11 +11904,11 @@
       <c r="E81" t="s">
         <v>2</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -11359,11 +11924,11 @@
       <c r="E82" t="s">
         <v>2</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -11379,11 +11944,11 @@
       <c r="E83" t="s">
         <v>4</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -11399,11 +11964,11 @@
       <c r="E84" t="s">
         <v>4</v>
       </c>
-      <c r="O84" t="s">
+      <c r="P84" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -11419,11 +11984,11 @@
       <c r="E85" t="s">
         <v>4</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -11439,11 +12004,11 @@
       <c r="E86" t="s">
         <v>4</v>
       </c>
-      <c r="O86" t="s">
+      <c r="P86" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -11459,11 +12024,11 @@
       <c r="E87" t="s">
         <v>4</v>
       </c>
-      <c r="O87" t="s">
+      <c r="P87" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -11479,11 +12044,11 @@
       <c r="E88" t="s">
         <v>2</v>
       </c>
-      <c r="O88" t="s">
+      <c r="P88" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -11499,11 +12064,11 @@
       <c r="E89" t="s">
         <v>2</v>
       </c>
-      <c r="O89" t="s">
+      <c r="P89" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -11519,11 +12084,11 @@
       <c r="E90" t="s">
         <v>2</v>
       </c>
-      <c r="O90" t="s">
+      <c r="P90" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -11539,11 +12104,11 @@
       <c r="E91" t="s">
         <v>2</v>
       </c>
-      <c r="O91" t="s">
+      <c r="P91" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1</v>
       </c>
@@ -11559,11 +12124,11 @@
       <c r="E92" t="s">
         <v>2</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -11579,11 +12144,11 @@
       <c r="E93" t="s">
         <v>4</v>
       </c>
-      <c r="O93" t="s">
+      <c r="P93" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -11599,11 +12164,11 @@
       <c r="E94" t="s">
         <v>4</v>
       </c>
-      <c r="O94" t="s">
+      <c r="P94" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -11619,11 +12184,11 @@
       <c r="E95" t="s">
         <v>4</v>
       </c>
-      <c r="O95" t="s">
+      <c r="P95" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -11639,11 +12204,11 @@
       <c r="E96" t="s">
         <v>4</v>
       </c>
-      <c r="O96" t="s">
+      <c r="P96" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1</v>
       </c>
@@ -11659,11 +12224,11 @@
       <c r="E97" t="s">
         <v>4</v>
       </c>
-      <c r="O97" t="s">
+      <c r="P97" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -11679,11 +12244,11 @@
       <c r="E98" t="s">
         <v>2</v>
       </c>
-      <c r="O98" t="s">
+      <c r="P98" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -11699,11 +12264,11 @@
       <c r="E99" t="s">
         <v>2</v>
       </c>
-      <c r="O99" t="s">
+      <c r="P99" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -11719,11 +12284,11 @@
       <c r="E100" t="s">
         <v>2</v>
       </c>
-      <c r="O100" t="s">
+      <c r="P100" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -11739,11 +12304,11 @@
       <c r="E101" t="s">
         <v>2</v>
       </c>
-      <c r="O101" t="s">
+      <c r="P101" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -11759,11 +12324,11 @@
       <c r="E102" t="s">
         <v>2</v>
       </c>
-      <c r="O102" t="s">
+      <c r="P102" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1</v>
       </c>
@@ -11779,11 +12344,11 @@
       <c r="E103" t="s">
         <v>4</v>
       </c>
-      <c r="O103" t="s">
+      <c r="P103" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -11799,11 +12364,11 @@
       <c r="E104" t="s">
         <v>4</v>
       </c>
-      <c r="O104" t="s">
+      <c r="P104" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -11819,11 +12384,11 @@
       <c r="E105" t="s">
         <v>4</v>
       </c>
-      <c r="O105" t="s">
+      <c r="P105" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1</v>
       </c>
@@ -11839,11 +12404,11 @@
       <c r="E106" t="s">
         <v>4</v>
       </c>
-      <c r="O106" t="s">
+      <c r="P106" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -11859,11 +12424,11 @@
       <c r="E107" t="s">
         <v>4</v>
       </c>
-      <c r="O107" t="s">
+      <c r="P107" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -11879,11 +12444,11 @@
       <c r="E108" t="s">
         <v>2</v>
       </c>
-      <c r="O108" t="s">
+      <c r="P108" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -11899,11 +12464,11 @@
       <c r="E109" t="s">
         <v>2</v>
       </c>
-      <c r="O109" t="s">
+      <c r="P109" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -11919,11 +12484,11 @@
       <c r="E110" t="s">
         <v>2</v>
       </c>
-      <c r="O110" t="s">
+      <c r="P110" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -11939,11 +12504,11 @@
       <c r="E111" t="s">
         <v>2</v>
       </c>
-      <c r="O111" t="s">
+      <c r="P111" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -11959,11 +12524,11 @@
       <c r="E112" t="s">
         <v>2</v>
       </c>
-      <c r="O112" t="s">
+      <c r="P112" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -11979,11 +12544,11 @@
       <c r="E113" t="s">
         <v>4</v>
       </c>
-      <c r="O113" t="s">
+      <c r="P113" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -11999,11 +12564,11 @@
       <c r="E114" t="s">
         <v>4</v>
       </c>
-      <c r="O114" t="s">
+      <c r="P114" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -12019,11 +12584,11 @@
       <c r="E115" t="s">
         <v>4</v>
       </c>
-      <c r="O115" t="s">
+      <c r="P115" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -12039,11 +12604,11 @@
       <c r="E116" t="s">
         <v>4</v>
       </c>
-      <c r="O116" t="s">
+      <c r="P116" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -12059,11 +12624,11 @@
       <c r="E117" t="s">
         <v>4</v>
       </c>
-      <c r="O117" t="s">
+      <c r="P117" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1</v>
       </c>
@@ -12079,11 +12644,11 @@
       <c r="E118" t="s">
         <v>4</v>
       </c>
-      <c r="O118" t="s">
+      <c r="P118" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -12099,11 +12664,11 @@
       <c r="E119" t="s">
         <v>4</v>
       </c>
-      <c r="O119" t="s">
+      <c r="P119" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -12119,11 +12684,11 @@
       <c r="E120" t="s">
         <v>4</v>
       </c>
-      <c r="O120" t="s">
+      <c r="P120" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -12139,11 +12704,11 @@
       <c r="E121" t="s">
         <v>4</v>
       </c>
-      <c r="O121" t="s">
+      <c r="P121" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1</v>
       </c>
@@ -12159,11 +12724,11 @@
       <c r="E122" t="s">
         <v>2</v>
       </c>
-      <c r="O122" t="s">
+      <c r="P122" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -12179,11 +12744,11 @@
       <c r="E123" t="s">
         <v>2</v>
       </c>
-      <c r="O123" t="s">
+      <c r="P123" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1</v>
       </c>
@@ -12199,11 +12764,11 @@
       <c r="E124" t="s">
         <v>2</v>
       </c>
-      <c r="O124" t="s">
+      <c r="P124" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1</v>
       </c>
@@ -12219,13 +12784,13 @@
       <c r="E125" t="s">
         <v>2</v>
       </c>
-      <c r="O125" t="s">
+      <c r="P125" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O107" xr:uid="{E1FFA69F-1C11-ED4C-B9BC-F2707BDA829C}">
-    <sortState ref="A2:O117">
+  <autoFilter ref="A1:P107" xr:uid="{E1FFA69F-1C11-ED4C-B9BC-F2707BDA829C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P117">
       <sortCondition ref="B1:B117"/>
     </sortState>
   </autoFilter>
@@ -12235,10 +12800,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12246,54 +12811,57 @@
     <col min="5" max="6" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>301</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>304</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>308</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>313</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>309</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s">
         <v>310</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" t="s">
         <v>311</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
+        <v>434</v>
+      </c>
+      <c r="P1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12309,11 +12877,11 @@
       <c r="E2" t="s">
         <v>361</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -12329,11 +12897,11 @@
       <c r="E3" t="s">
         <v>361</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -12349,11 +12917,11 @@
       <c r="E4" t="s">
         <v>361</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -12369,11 +12937,11 @@
       <c r="E5" t="s">
         <v>361</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -12389,11 +12957,11 @@
       <c r="E6" t="s">
         <v>361</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -12409,11 +12977,11 @@
       <c r="E7" t="s">
         <v>361</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -12429,11 +12997,11 @@
       <c r="E8" t="s">
         <v>361</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -12449,11 +13017,11 @@
       <c r="E9" t="s">
         <v>361</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -12469,11 +13037,11 @@
       <c r="E10" t="s">
         <v>361</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -12489,11 +13057,11 @@
       <c r="E11" t="s">
         <v>361</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -12509,11 +13077,11 @@
       <c r="E12" t="s">
         <v>361</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -12529,11 +13097,11 @@
       <c r="E13" t="s">
         <v>361</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -12549,11 +13117,11 @@
       <c r="E14" t="s">
         <v>361</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -12569,11 +13137,11 @@
       <c r="E15" t="s">
         <v>361</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -12589,11 +13157,11 @@
       <c r="E16" t="s">
         <v>360</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -12609,11 +13177,11 @@
       <c r="E17" t="s">
         <v>360</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -12629,11 +13197,11 @@
       <c r="E18" t="s">
         <v>360</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -12649,11 +13217,11 @@
       <c r="E19" t="s">
         <v>360</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -12669,11 +13237,11 @@
       <c r="E20" t="s">
         <v>360</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -12689,11 +13257,11 @@
       <c r="E21" t="s">
         <v>360</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -12709,11 +13277,11 @@
       <c r="E22" t="s">
         <v>360</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -12729,11 +13297,11 @@
       <c r="E23" t="s">
         <v>360</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -12749,11 +13317,11 @@
       <c r="E24" t="s">
         <v>360</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -12769,11 +13337,11 @@
       <c r="E25" t="s">
         <v>360</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -12789,11 +13357,11 @@
       <c r="E26" t="s">
         <v>360</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -12809,11 +13377,11 @@
       <c r="E27" t="s">
         <v>360</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -12829,11 +13397,11 @@
       <c r="E28" t="s">
         <v>360</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -12849,11 +13417,11 @@
       <c r="E29" t="s">
         <v>360</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -12869,11 +13437,11 @@
       <c r="E30" t="s">
         <v>361</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -12889,7 +13457,7 @@
       <c r="E31" t="s">
         <v>360</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>359</v>
       </c>
     </row>
@@ -12900,62 +13468,65 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>301</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>304</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>308</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>313</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>309</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s">
         <v>310</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" t="s">
         <v>311</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
+        <v>434</v>
+      </c>
+      <c r="P1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12971,11 +13542,11 @@
       <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -12991,11 +13562,11 @@
       <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -13011,11 +13582,11 @@
       <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -13031,11 +13602,11 @@
       <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -13051,11 +13622,11 @@
       <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -13071,11 +13642,11 @@
       <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -13091,11 +13662,11 @@
       <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -13111,11 +13682,11 @@
       <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -13131,11 +13702,11 @@
       <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -13151,11 +13722,11 @@
       <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -13171,11 +13742,11 @@
       <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -13191,11 +13762,11 @@
       <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -13211,11 +13782,11 @@
       <c r="E14" t="s">
         <v>26</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -13231,11 +13802,11 @@
       <c r="E15" t="s">
         <v>27</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -13251,11 +13822,11 @@
       <c r="E16" t="s">
         <v>26</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -13271,11 +13842,11 @@
       <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -13291,11 +13862,11 @@
       <c r="E18" t="s">
         <v>26</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -13311,11 +13882,11 @@
       <c r="E19" t="s">
         <v>27</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -13331,11 +13902,11 @@
       <c r="E20" t="s">
         <v>26</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -13351,11 +13922,11 @@
       <c r="E21" t="s">
         <v>27</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -13371,11 +13942,11 @@
       <c r="E22" t="s">
         <v>26</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -13391,11 +13962,11 @@
       <c r="E23" t="s">
         <v>27</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -13411,11 +13982,11 @@
       <c r="E24" t="s">
         <v>26</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -13431,11 +14002,11 @@
       <c r="E25" t="s">
         <v>27</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -13451,11 +14022,11 @@
       <c r="E26" t="s">
         <v>26</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -13471,11 +14042,11 @@
       <c r="E27" t="s">
         <v>27</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -13491,11 +14062,11 @@
       <c r="E28" t="s">
         <v>26</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -13511,11 +14082,11 @@
       <c r="E29" t="s">
         <v>27</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -13531,11 +14102,11 @@
       <c r="E30" t="s">
         <v>26</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -13551,7 +14122,7 @@
       <c r="E31" t="s">
         <v>27</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>10</v>
       </c>
     </row>
@@ -13562,10 +14133,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FC23AF-DBB0-9E48-AA65-E74E9B9505B8}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13576,54 +14147,57 @@
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>301</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>304</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>308</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>313</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>309</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s">
         <v>310</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" t="s">
         <v>311</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
+        <v>434</v>
+      </c>
+      <c r="P1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13654,11 +14228,14 @@
       <c r="M2" t="s">
         <v>245</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -13689,11 +14266,14 @@
       <c r="M3" t="s">
         <v>245</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -13724,11 +14304,14 @@
       <c r="M4" t="s">
         <v>245</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -13759,11 +14342,14 @@
       <c r="M5" t="s">
         <v>245</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -13794,11 +14380,14 @@
       <c r="M6" t="s">
         <v>245</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -13829,11 +14418,14 @@
       <c r="M7" t="s">
         <v>245</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -13864,11 +14456,14 @@
       <c r="M8" t="s">
         <v>245</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -13899,11 +14494,14 @@
       <c r="M9" t="s">
         <v>245</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -13934,11 +14532,14 @@
       <c r="M10" t="s">
         <v>245</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -13969,11 +14570,14 @@
       <c r="M11" t="s">
         <v>245</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -14004,11 +14608,14 @@
       <c r="M12" t="s">
         <v>245</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -14039,7 +14646,10 @@
       <c r="M13" t="s">
         <v>245</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13" t="s">
         <v>384</v>
       </c>
     </row>
@@ -14053,7 +14663,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
